--- a/form/index.xlsx
+++ b/form/index.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8186D4E3-1D77-4B58-9626-BFEFDC9F0D30}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9BDE17E4-61D1-440B-A896-8397B0F28D6C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>product_code</t>
   </si>
   <si>
-    <t>TNMG160404FN</t>
-  </si>
-  <si>
     <t>qty</t>
   </si>
   <si>
-    <t>TNMG16040400</t>
+    <t>SPC0030-0240-ALU</t>
+  </si>
+  <si>
+    <t>TNMG160404EN-NFT</t>
+  </si>
+  <si>
+    <t>DNMG150604EN-NFT</t>
+  </si>
+  <si>
+    <t>DNMG150604EN-NF</t>
   </si>
 </sst>
 </file>
@@ -363,7 +369,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,12 +383,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>15</v>
@@ -390,7 +396,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>20</v>
@@ -398,7 +404,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>30</v>
@@ -406,7 +412,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>40</v>
@@ -414,7 +420,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>50</v>
